--- a/data/trans_camb/P53_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P53_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>-5,99</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>-19,2</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-11,69</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 18,22</t>
+          <t>-16,25; 30,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 15,99</t>
+          <t>-20,31; 20,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 14,73</t>
+          <t>-18,91; 25,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 12,2</t>
+          <t>-22,68; 17,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 19,26</t>
+          <t>-26,89; 15,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 20,84</t>
+          <t>-22,85; 21,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 9,51</t>
+          <t>-24,61; 20,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 13,34</t>
+          <t>-39,26; -1,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 11,79</t>
+          <t>-16,63; 14,1</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-16,9; 13,62</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-14,95; 16,21</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-25,49; 1,66</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>39,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,69%</t>
+          <t>32,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,02%</t>
+          <t>-17,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>-21,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>-6,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-5,33%</t>
+          <t>-5,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>-70,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>-3,67%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-2,33%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-54,12%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-72,57; 276,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-73,15; 234,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-75,75; 245,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-59,53; 65,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 110,23</t>
+          <t>-72,81; 112,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,83; 132,24</t>
+          <t>-61,82; 153,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,31; 66,28</t>
+          <t>-61,82; 139,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,15; 88,58</t>
+          <t>-100,0; 12,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-41,69; 80,77</t>
+          <t>-59,28; 109,32</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-56,49; 101,18</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-52,34; 129,15</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-84,24; 29,84</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>9,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,35</t>
+          <t>13,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-4,88</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,17</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>9,52</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,96</t>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,77</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12,38</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,87; 24,37</t>
+          <t>-29,71; 32,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 28,43</t>
+          <t>-26,68; 41,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 34,2</t>
+          <t>-24,22; 46,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 13,01</t>
+          <t>-36,69; 26,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 18,63</t>
+          <t>-8,16; 16,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 20,88</t>
+          <t>-5,68; 19,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 13,28</t>
+          <t>-4,38; 23,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 19,16</t>
+          <t>-6,19; 17,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 24,51</t>
+          <t>-17,54; 20,85</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-12,4; 30,74</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-9,33; 34,79</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-18,56; 19,86</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>34,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>48,05%</t>
+          <t>48,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,62%</t>
+          <t>-18,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,51%</t>
+          <t>40,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>52,97%</t>
+          <t>70,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>101,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>50,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>51,64%</t>
+          <t>15,42%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>48,29%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>68,15%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-78,54; 265,16</t>
+          <t>-77,74; 278,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-71,27; 263,27</t>
+          <t>-85,29; 338,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-75,63; 324,39</t>
+          <t>-83,79; 386,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-62,03; 162,19</t>
+          <t>-92,14; 251,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,26; 206,62</t>
+          <t>-66,39; 459,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,06; 236,33</t>
+          <t>-52,87; 470,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,37; 117,05</t>
+          <t>-36,28; 585,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,96; 171,64</t>
+          <t>-52,98; 452,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-30,71; 202,11</t>
+          <t>-66,97; 206,15</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-59,97; 308,19</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-54,37; 369,65</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-72,71; 195,47</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13,82</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,68</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>-7,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,7</t>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,97</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-4,59</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 33,4</t>
+          <t>-13,51; 16,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 19,99</t>
+          <t>-17,67; 11,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 32,05</t>
+          <t>-19,15; 8,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 9,59</t>
+          <t>-21,11; 5,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 10,27</t>
+          <t>-5,26; 8,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 9,18</t>
+          <t>-4,74; 9,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 19,75</t>
+          <t>-5,34; 8,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 11,62</t>
+          <t>-9,36; 2,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 17,17</t>
+          <t>-5,5; 9,17</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-7,5; 6,96</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-7,88; 6,29</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-10,63; 2,56</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>71,1%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>-18,22%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>49,77%</t>
+          <t>-29,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>-44,93%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>27,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>31,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>49,69%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>-48,23%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>37,46%</t>
+          <t>17,12%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,57%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-9,4%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-44,49%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 282,53</t>
+          <t>-59,33; 192,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-51,44; 164,11</t>
+          <t>-79,74; 143,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,21; 239,69</t>
+          <t>-83,6; 124,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-41,11; 114,47</t>
+          <t>-88,55; 90,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,01; 135,12</t>
+          <t>-60,09; 244,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,21; 107,75</t>
+          <t>-52,93; 260,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 162,71</t>
+          <t>-64,21; 254,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,64; 91,65</t>
+          <t>-90,96; 137,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-22,22; 140,77</t>
+          <t>-41,24; 132,91</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-53,2; 98,61</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-57,36; 90,22</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-76,19; 46,38</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-2,4</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-3,44</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 7,7</t>
+          <t>-7,91; 6,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 8,13</t>
+          <t>-9,77; 4,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 11,4</t>
+          <t>-8,0; 6,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 14,1</t>
+          <t>-10,03; 3,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 9,63</t>
+          <t>-7,22; 16,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 11,73</t>
+          <t>-14,17; 9,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 8,76</t>
+          <t>-14,32; 9,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 6,51</t>
+          <t>-13,75; 9,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 9,09</t>
+          <t>-4,7; 9,24</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-9,75; 3,76</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-8,0; 5,02</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-10,26; 3,37</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,49%</t>
+          <t>-5,71%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-2,38%</t>
+          <t>-28,82%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>27,52%</t>
+          <t>-5,92%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>-49,37%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>22,31%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>-14,97%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>-10,56%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>-17,69%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>16,36%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-18,02%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-11,38%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-25,84%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-57,2; 119,66</t>
+          <t>-87,13; 381,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-54,36; 125,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-39,44; 179,75</t>
+          <t>-100,0; 331,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,0; 77,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,88; 55,09</t>
+          <t>-29,15; 123,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,83; 66,72</t>
+          <t>-54,74; 64,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 63,4</t>
+          <t>-55,81; 69,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-30,76; 46,4</t>
+          <t>-57,96; 68,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 64,15</t>
+          <t>-28,31; 95,04</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-57,06; 43,12</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-49,18; 52,06</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-60,5; 37,4</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>-6,83</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2,98</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>3,82</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-2,47</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 16,5</t>
+          <t>-17,56; 19,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 16,58</t>
+          <t>-15,4; 23,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,39; 13,21</t>
+          <t>-15,75; 20,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 13,78</t>
+          <t>-23,96; 7,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 17,74</t>
+          <t>-19,12; 16,98</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 19,13</t>
+          <t>-16,5; 19,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 11,83</t>
+          <t>-14,16; 22,02</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 13,4</t>
+          <t>-14,33; 22,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 13,72</t>
+          <t>-12,35; 14,23</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-11,1; 16,66</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-10,92; 16,19</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-15,42; 9,04</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>-26,82%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>-1,5%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>31,11%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>11,66%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>14,93%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-9,66%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,47; 90,9</t>
+          <t>-54,57; 119,13</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-38,04; 90,91</t>
+          <t>-47,71; 134,03</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-41,43; 72,74</t>
+          <t>-49,51; 126,98</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-37,4; 83,89</t>
+          <t>-69,69; 49,83</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 104,85</t>
+          <t>-55,32; 111,68</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,76; 119,09</t>
+          <t>-50,32; 123,04</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-29,48; 59,97</t>
+          <t>-43,88; 130,97</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 66,11</t>
+          <t>-43,33; 130,54</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 65,21</t>
+          <t>-38,78; 74,46</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-35,27; 84,21</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-34,75; 84,2</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-49,93; 46,87</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-7,52</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1,97</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 12,14</t>
+          <t>-12,19; 14,14</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 9,97</t>
+          <t>-15,28; 8,87</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 11,85</t>
+          <t>-14,26; 11,17</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 14,79</t>
+          <t>-7,88; 21,56</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 20,35</t>
+          <t>-23,8; 23,41</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 24,59</t>
+          <t>-21,78; 24,48</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 10,25</t>
+          <t>-16,51; 31,6</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 11,05</t>
+          <t>-29,55; 27,73</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 15,24</t>
+          <t>-14,06; 15,89</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-15,28; 15,19</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-14,47; 17,4</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-15,05; 23,46</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,06%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-9,53%</t>
+          <t>-28,96%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-0,4%</t>
+          <t>-21,18%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-3,6%</t>
+          <t>46,34%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-2,58%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>-16,64%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-0,09%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>7,18%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-52,55; 95,4</t>
+          <t>-81,54; 571,73</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-58,03; 83,01</t>
+          <t>-100,0; 398,88</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-52,77; 98,42</t>
+          <t>-100,0; 459,0</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-36,97; 40,08</t>
+          <t>-67,83; 605,48</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-30,17; 58,93</t>
+          <t>-43,13; 73,91</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-21,11; 70,2</t>
+          <t>-40,8; 73,44</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-34,85; 39,51</t>
+          <t>-29,61; 97,2</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-33,86; 44,73</t>
+          <t>-58,2; 94,36</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-23,28; 60,16</t>
+          <t>-42,75; 88,7</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-44,47; 76,32</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-39,91; 95,83</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-47,8; 126,28</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-2,57</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 11,6</t>
+          <t>-7,3; 10,2</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 8,56</t>
+          <t>-7,21; 11,01</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 12,12</t>
+          <t>-7,66; 13,03</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 5,81</t>
+          <t>-11,83; 6,42</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 7,85</t>
+          <t>-4,28; 7,59</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 9,48</t>
+          <t>-4,56; 7,18</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 6,32</t>
+          <t>-3,43; 8,3</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 6,25</t>
+          <t>-8,02; 6,34</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 8,85</t>
+          <t>-3,82; 6,35</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-3,91; 6,94</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 8,64</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-7,96; 3,63</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>-20,3%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>-9,15%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>8,25%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>8,16%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>15,3%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-14,37%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-17,08; 72,23</t>
+          <t>-37,06; 78,85</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 53,91</t>
+          <t>-37,96; 81,87</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 75,74</t>
+          <t>-38,78; 99,43</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 29,9</t>
+          <t>-55,35; 51,61</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 39,79</t>
+          <t>-20,17; 47,89</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 48,78</t>
+          <t>-21,18; 43,88</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 34,6</t>
+          <t>-15,94; 51,72</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 32,72</t>
+          <t>-37,46; 41,57</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 47,66</t>
+          <t>-19,38; 40,59</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-19,4; 45,09</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-13,54; 53,39</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-39,32; 24,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
